--- a/No Dog Left Behind.xlsx
+++ b/No Dog Left Behind.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nberr\Documents\Projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nberr\Documents\Git\Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DFFDC1D-D385-402A-B968-2189DD3166DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1696363C-2CA1-4220-BF4E-B3077F55673B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{F8A11AE2-5D39-45E9-9000-ACF4FB31041F}"/>
+    <workbookView xWindow="5760" yWindow="984" windowWidth="17280" windowHeight="8964" xr2:uid="{F8A11AE2-5D39-45E9-9000-ACF4FB31041F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -666,17 +666,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2C6A60-AF7D-484F-BB03-4291D05DCE40}">
   <dimension ref="A1:A94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.109375" customWidth="1"/>
+    <col min="1" max="1" width="39.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1142,5 +1142,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>